--- a/Links.xlsx
+++ b/Links.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Links</t>
   </si>
@@ -112,6 +112,18 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>https://www.fool.com/investing/general/2015/01/03/the-drug-development-process-9-steps-from-the-labo.aspx</t>
+  </si>
+  <si>
+    <t>Drug Development Process</t>
+  </si>
+  <si>
+    <t>https://www.fda.gov/ForPatients/Approvals/Drugs/ucm405382.htm</t>
+  </si>
+  <si>
+    <t>FDA Drug Development Process</t>
   </si>
 </sst>
 </file>
@@ -451,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,6 +565,22 @@
       </c>
       <c r="B12" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
